--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Ceacam1-Sele.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Ceacam1-Sele.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>Sele</t>
+  </si>
+  <si>
+    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>28.1477345541478</v>
+        <v>30.54238433333333</v>
       </c>
       <c r="H2">
-        <v>28.1477345541478</v>
+        <v>91.62715299999999</v>
       </c>
       <c r="I2">
-        <v>0.3264481834475823</v>
+        <v>0.3007947574010637</v>
       </c>
       <c r="J2">
-        <v>0.3264481834475823</v>
+        <v>0.3007947574010637</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.34367669531678</v>
+        <v>8.692291666666668</v>
       </c>
       <c r="N2">
-        <v>1.34367669531678</v>
+        <v>26.076875</v>
       </c>
       <c r="O2">
-        <v>0.4069111148101753</v>
+        <v>0.7904374164682153</v>
       </c>
       <c r="P2">
-        <v>0.4069111148101753</v>
+        <v>0.7904374164682152</v>
       </c>
       <c r="Q2">
-        <v>37.82145494637125</v>
+        <v>265.4833128207639</v>
       </c>
       <c r="R2">
-        <v>37.82145494637125</v>
+        <v>2389.349815386875</v>
       </c>
       <c r="S2">
-        <v>0.1328353942544123</v>
+        <v>0.2377594309272804</v>
       </c>
       <c r="T2">
-        <v>0.1328353942544123</v>
+        <v>0.2377594309272804</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,122 +596,122 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>28.1477345541478</v>
+        <v>30.54238433333333</v>
       </c>
       <c r="H3">
-        <v>28.1477345541478</v>
+        <v>91.62715299999999</v>
       </c>
       <c r="I3">
-        <v>0.3264481834475823</v>
+        <v>0.3007947574010637</v>
       </c>
       <c r="J3">
-        <v>0.3264481834475823</v>
+        <v>0.3007947574010637</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>1.95846140416376</v>
+        <v>0.125446</v>
       </c>
       <c r="N3">
-        <v>1.95846140416376</v>
+        <v>0.376338</v>
       </c>
       <c r="O3">
-        <v>0.5930888851898247</v>
+        <v>0.01140748791558863</v>
       </c>
       <c r="P3">
-        <v>0.5930888851898247</v>
+        <v>0.01140748791558863</v>
       </c>
       <c r="Q3">
-        <v>55.12625173894509</v>
+        <v>3.831419945079333</v>
       </c>
       <c r="R3">
-        <v>55.12625173894509</v>
+        <v>34.482779505714</v>
       </c>
       <c r="S3">
-        <v>0.19361278919317</v>
+        <v>0.003431312560125047</v>
       </c>
       <c r="T3">
-        <v>0.19361278919317</v>
+        <v>0.003431312560125047</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.3200202677842</v>
+        <v>30.54238433333333</v>
       </c>
       <c r="H4">
-        <v>10.3200202677842</v>
+        <v>91.62715299999999</v>
       </c>
       <c r="I4">
-        <v>0.1196882066327409</v>
+        <v>0.3007947574010637</v>
       </c>
       <c r="J4">
-        <v>0.1196882066327409</v>
+        <v>0.3007947574010637</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>1.34367669531678</v>
+        <v>0.09408699999999999</v>
       </c>
       <c r="N4">
-        <v>1.34367669531678</v>
+        <v>0.282261</v>
       </c>
       <c r="O4">
-        <v>0.4069111148101753</v>
+        <v>0.008555843275305605</v>
       </c>
       <c r="P4">
-        <v>0.4069111148101753</v>
+        <v>0.008555843275305605</v>
       </c>
       <c r="Q4">
-        <v>13.86677072901846</v>
+        <v>2.873641314770333</v>
       </c>
       <c r="R4">
-        <v>13.86677072901846</v>
+        <v>25.862771832933</v>
       </c>
       <c r="S4">
-        <v>0.04870246159055923</v>
+        <v>0.002573552802357072</v>
       </c>
       <c r="T4">
-        <v>0.04870246159055923</v>
+        <v>0.002573552802357072</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -720,57 +723,57 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.3200202677842</v>
+        <v>30.54238433333333</v>
       </c>
       <c r="H5">
-        <v>10.3200202677842</v>
+        <v>91.62715299999999</v>
       </c>
       <c r="I5">
-        <v>0.1196882066327409</v>
+        <v>0.3007947574010637</v>
       </c>
       <c r="J5">
-        <v>0.1196882066327409</v>
+        <v>0.3007947574010637</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.95846140416376</v>
+        <v>2.040985</v>
       </c>
       <c r="N5">
-        <v>1.95846140416376</v>
+        <v>6.122954999999999</v>
       </c>
       <c r="O5">
-        <v>0.5930888851898247</v>
+        <v>0.185597880549381</v>
       </c>
       <c r="P5">
-        <v>0.5930888851898247</v>
+        <v>0.185597880549381</v>
       </c>
       <c r="Q5">
-        <v>20.21136138464311</v>
+        <v>62.33654828856832</v>
       </c>
       <c r="R5">
-        <v>20.21136138464311</v>
+        <v>561.0289345971149</v>
       </c>
       <c r="S5">
-        <v>0.07098574504218171</v>
+        <v>0.05582686945400266</v>
       </c>
       <c r="T5">
-        <v>0.07098574504218171</v>
+        <v>0.05582686945400266</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,60 +782,60 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.127496266433</v>
+        <v>30.54238433333333</v>
       </c>
       <c r="H6">
-        <v>10.127496266433</v>
+        <v>91.62715299999999</v>
       </c>
       <c r="I6">
-        <v>0.1174553764776087</v>
+        <v>0.3007947574010637</v>
       </c>
       <c r="J6">
-        <v>0.1174553764776087</v>
+        <v>0.3007947574010637</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>1.34367669531678</v>
+        <v>0.04400233333333333</v>
       </c>
       <c r="N6">
-        <v>1.34367669531678</v>
+        <v>0.132007</v>
       </c>
       <c r="O6">
-        <v>0.4069111148101753</v>
+        <v>0.004001371791509515</v>
       </c>
       <c r="P6">
-        <v>0.4069111148101753</v>
+        <v>0.004001371791509514</v>
       </c>
       <c r="Q6">
-        <v>13.60808071511372</v>
+        <v>1.343936176230111</v>
       </c>
       <c r="R6">
-        <v>13.60808071511372</v>
+        <v>12.095425586071</v>
       </c>
       <c r="S6">
-        <v>0.0477938981829526</v>
+        <v>0.001203591657298564</v>
       </c>
       <c r="T6">
-        <v>0.0477938981829526</v>
+        <v>0.001203591657298564</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -841,60 +844,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>10.127496266433</v>
+        <v>21.55382266666667</v>
       </c>
       <c r="H7">
-        <v>10.127496266433</v>
+        <v>64.661468</v>
       </c>
       <c r="I7">
-        <v>0.1174553764776087</v>
+        <v>0.2122714713209156</v>
       </c>
       <c r="J7">
-        <v>0.1174553764776087</v>
+        <v>0.2122714713209156</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.95846140416376</v>
+        <v>8.692291666666668</v>
       </c>
       <c r="N7">
-        <v>1.95846140416376</v>
+        <v>26.076875</v>
       </c>
       <c r="O7">
-        <v>0.5930888851898247</v>
+        <v>0.7904374164682153</v>
       </c>
       <c r="P7">
-        <v>0.5930888851898247</v>
+        <v>0.7904374164682152</v>
       </c>
       <c r="Q7">
-        <v>19.83431055862161</v>
+        <v>187.3521131502778</v>
       </c>
       <c r="R7">
-        <v>19.83431055862161</v>
+        <v>1686.1690183525</v>
       </c>
       <c r="S7">
-        <v>0.0696614782946561</v>
+        <v>0.1677873133808114</v>
       </c>
       <c r="T7">
-        <v>0.0696614782946561</v>
+        <v>0.1677873133808113</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,60 +906,60 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>37.1135417437245</v>
+        <v>21.55382266666667</v>
       </c>
       <c r="H8">
-        <v>37.1135417437245</v>
+        <v>64.661468</v>
       </c>
       <c r="I8">
-        <v>0.4304306714360264</v>
+        <v>0.2122714713209156</v>
       </c>
       <c r="J8">
-        <v>0.4304306714360264</v>
+        <v>0.2122714713209156</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>1.34367669531678</v>
+        <v>0.125446</v>
       </c>
       <c r="N8">
-        <v>1.34367669531678</v>
+        <v>0.376338</v>
       </c>
       <c r="O8">
-        <v>0.4069111148101753</v>
+        <v>0.01140748791558863</v>
       </c>
       <c r="P8">
-        <v>0.4069111148101753</v>
+        <v>0.01140748791558863</v>
       </c>
       <c r="Q8">
-        <v>49.8686011217091</v>
+        <v>2.703840838242666</v>
       </c>
       <c r="R8">
-        <v>49.8686011217091</v>
+        <v>24.334567544184</v>
       </c>
       <c r="S8">
-        <v>0.1751470243625258</v>
+        <v>0.002421484243917562</v>
       </c>
       <c r="T8">
-        <v>0.1751470243625258</v>
+        <v>0.002421484243917562</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,60 +968,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>37.1135417437245</v>
+        <v>21.55382266666667</v>
       </c>
       <c r="H9">
-        <v>37.1135417437245</v>
+        <v>64.661468</v>
       </c>
       <c r="I9">
-        <v>0.4304306714360264</v>
+        <v>0.2122714713209156</v>
       </c>
       <c r="J9">
-        <v>0.4304306714360264</v>
+        <v>0.2122714713209156</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>1.95846140416376</v>
+        <v>0.09408699999999999</v>
       </c>
       <c r="N9">
-        <v>1.95846140416376</v>
+        <v>0.282261</v>
       </c>
       <c r="O9">
-        <v>0.5930888851898247</v>
+        <v>0.008555843275305605</v>
       </c>
       <c r="P9">
-        <v>0.5930888851898247</v>
+        <v>0.008555843275305605</v>
       </c>
       <c r="Q9">
-        <v>72.685439076905</v>
+        <v>2.027934513238666</v>
       </c>
       <c r="R9">
-        <v>72.685439076905</v>
+        <v>18.251410619148</v>
       </c>
       <c r="S9">
-        <v>0.2552836470735006</v>
+        <v>0.001816161440440282</v>
       </c>
       <c r="T9">
-        <v>0.2552836470735006</v>
+        <v>0.001816161440440282</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,117 +1030,1047 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.51541052197044</v>
+        <v>21.55382266666667</v>
       </c>
       <c r="H10">
-        <v>0.51541052197044</v>
+        <v>64.661468</v>
       </c>
       <c r="I10">
-        <v>0.005977562006041677</v>
+        <v>0.2122714713209156</v>
       </c>
       <c r="J10">
-        <v>0.005977562006041677</v>
+        <v>0.2122714713209156</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.34367669531678</v>
+        <v>2.040985</v>
       </c>
       <c r="N10">
-        <v>1.34367669531678</v>
+        <v>6.122954999999999</v>
       </c>
       <c r="O10">
-        <v>0.4069111148101753</v>
+        <v>0.185597880549381</v>
       </c>
       <c r="P10">
-        <v>0.4069111148101753</v>
+        <v>0.185597880549381</v>
       </c>
       <c r="Q10">
-        <v>0.6925451068927375</v>
+        <v>43.99102875532665</v>
       </c>
       <c r="R10">
-        <v>0.6925451068927375</v>
+        <v>395.91925879794</v>
       </c>
       <c r="S10">
-        <v>0.002432336419725367</v>
+        <v>0.03939713517826065</v>
       </c>
       <c r="T10">
-        <v>0.002432336419725367</v>
+        <v>0.03939713517826065</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>21.55382266666667</v>
+      </c>
+      <c r="H11">
+        <v>64.661468</v>
+      </c>
+      <c r="I11">
+        <v>0.2122714713209156</v>
+      </c>
+      <c r="J11">
+        <v>0.2122714713209156</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.04400233333333333</v>
+      </c>
+      <c r="N11">
+        <v>0.132007</v>
+      </c>
+      <c r="O11">
+        <v>0.004001371791509515</v>
+      </c>
+      <c r="P11">
+        <v>0.004001371791509514</v>
+      </c>
+      <c r="Q11">
+        <v>0.9484184895862221</v>
+      </c>
+      <c r="R11">
+        <v>8.535766406275998</v>
+      </c>
+      <c r="S11">
+        <v>0.0008493770774857327</v>
+      </c>
+      <c r="T11">
+        <v>0.0008493770774857325</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>11.129763</v>
+      </c>
+      <c r="H12">
+        <v>33.389289</v>
+      </c>
+      <c r="I12">
+        <v>0.1096107731793108</v>
+      </c>
+      <c r="J12">
+        <v>0.1096107731793108</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>8.692291666666668</v>
+      </c>
+      <c r="N12">
+        <v>26.076875</v>
+      </c>
+      <c r="O12">
+        <v>0.7904374164682153</v>
+      </c>
+      <c r="P12">
+        <v>0.7904374164682152</v>
+      </c>
+      <c r="Q12">
+        <v>96.743146176875</v>
+      </c>
+      <c r="R12">
+        <v>870.688315591875</v>
+      </c>
+      <c r="S12">
+        <v>0.08664045636893795</v>
+      </c>
+      <c r="T12">
+        <v>0.08664045636893794</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>11.129763</v>
+      </c>
+      <c r="H13">
+        <v>33.389289</v>
+      </c>
+      <c r="I13">
+        <v>0.1096107731793108</v>
+      </c>
+      <c r="J13">
+        <v>0.1096107731793108</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.125446</v>
+      </c>
+      <c r="N13">
+        <v>0.376338</v>
+      </c>
+      <c r="O13">
+        <v>0.01140748791558863</v>
+      </c>
+      <c r="P13">
+        <v>0.01140748791558863</v>
+      </c>
+      <c r="Q13">
+        <v>1.396184249298</v>
+      </c>
+      <c r="R13">
+        <v>12.565658243682</v>
+      </c>
+      <c r="S13">
+        <v>0.001250383570461313</v>
+      </c>
+      <c r="T13">
+        <v>0.001250383570461313</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>11.129763</v>
+      </c>
+      <c r="H14">
+        <v>33.389289</v>
+      </c>
+      <c r="I14">
+        <v>0.1096107731793108</v>
+      </c>
+      <c r="J14">
+        <v>0.1096107731793108</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.09408699999999999</v>
+      </c>
+      <c r="N14">
+        <v>0.282261</v>
+      </c>
+      <c r="O14">
+        <v>0.008555843275305605</v>
+      </c>
+      <c r="P14">
+        <v>0.008555843275305605</v>
+      </c>
+      <c r="Q14">
+        <v>1.047166011381</v>
+      </c>
+      <c r="R14">
+        <v>9.424494102429</v>
+      </c>
+      <c r="S14">
+        <v>0.0009378125966072541</v>
+      </c>
+      <c r="T14">
+        <v>0.0009378125966072541</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.51541052197044</v>
-      </c>
-      <c r="H11">
-        <v>0.51541052197044</v>
-      </c>
-      <c r="I11">
-        <v>0.005977562006041677</v>
-      </c>
-      <c r="J11">
-        <v>0.005977562006041677</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>1.95846140416376</v>
-      </c>
-      <c r="N11">
-        <v>1.95846140416376</v>
-      </c>
-      <c r="O11">
-        <v>0.5930888851898247</v>
-      </c>
-      <c r="P11">
-        <v>0.5930888851898247</v>
-      </c>
-      <c r="Q11">
-        <v>1.009411614579004</v>
-      </c>
-      <c r="R11">
-        <v>1.009411614579004</v>
-      </c>
-      <c r="S11">
-        <v>0.003545225586316311</v>
-      </c>
-      <c r="T11">
-        <v>0.003545225586316311</v>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>11.129763</v>
+      </c>
+      <c r="H15">
+        <v>33.389289</v>
+      </c>
+      <c r="I15">
+        <v>0.1096107731793108</v>
+      </c>
+      <c r="J15">
+        <v>0.1096107731793108</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>2.040985</v>
+      </c>
+      <c r="N15">
+        <v>6.122954999999999</v>
+      </c>
+      <c r="O15">
+        <v>0.185597880549381</v>
+      </c>
+      <c r="P15">
+        <v>0.185597880549381</v>
+      </c>
+      <c r="Q15">
+        <v>22.71567933655499</v>
+      </c>
+      <c r="R15">
+        <v>204.441114028995</v>
+      </c>
+      <c r="S15">
+        <v>0.02034352718745901</v>
+      </c>
+      <c r="T15">
+        <v>0.02034352718745901</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>11.129763</v>
+      </c>
+      <c r="H16">
+        <v>33.389289</v>
+      </c>
+      <c r="I16">
+        <v>0.1096107731793108</v>
+      </c>
+      <c r="J16">
+        <v>0.1096107731793108</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.04400233333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.132007</v>
+      </c>
+      <c r="O16">
+        <v>0.004001371791509515</v>
+      </c>
+      <c r="P16">
+        <v>0.004001371791509514</v>
+      </c>
+      <c r="Q16">
+        <v>0.4897355414469999</v>
+      </c>
+      <c r="R16">
+        <v>4.407619873022999</v>
+      </c>
+      <c r="S16">
+        <v>0.0004385934558452419</v>
+      </c>
+      <c r="T16">
+        <v>0.0004385934558452417</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>37.786202</v>
+      </c>
+      <c r="H17">
+        <v>113.358606</v>
+      </c>
+      <c r="I17">
+        <v>0.3721350415754244</v>
+      </c>
+      <c r="J17">
+        <v>0.3721350415754244</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>8.692291666666668</v>
+      </c>
+      <c r="N17">
+        <v>26.076875</v>
+      </c>
+      <c r="O17">
+        <v>0.7904374164682153</v>
+      </c>
+      <c r="P17">
+        <v>0.7904374164682152</v>
+      </c>
+      <c r="Q17">
+        <v>328.4486887595834</v>
+      </c>
+      <c r="R17">
+        <v>2956.038198836251</v>
+      </c>
+      <c r="S17">
+        <v>0.2941494608401704</v>
+      </c>
+      <c r="T17">
+        <v>0.2941494608401703</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>37.786202</v>
+      </c>
+      <c r="H18">
+        <v>113.358606</v>
+      </c>
+      <c r="I18">
+        <v>0.3721350415754244</v>
+      </c>
+      <c r="J18">
+        <v>0.3721350415754244</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.125446</v>
+      </c>
+      <c r="N18">
+        <v>0.376338</v>
+      </c>
+      <c r="O18">
+        <v>0.01140748791558863</v>
+      </c>
+      <c r="P18">
+        <v>0.01140748791558863</v>
+      </c>
+      <c r="Q18">
+        <v>4.740127896092001</v>
+      </c>
+      <c r="R18">
+        <v>42.661151064828</v>
+      </c>
+      <c r="S18">
+        <v>0.004245125989738725</v>
+      </c>
+      <c r="T18">
+        <v>0.004245125989738725</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>37.786202</v>
+      </c>
+      <c r="H19">
+        <v>113.358606</v>
+      </c>
+      <c r="I19">
+        <v>0.3721350415754244</v>
+      </c>
+      <c r="J19">
+        <v>0.3721350415754244</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.09408699999999999</v>
+      </c>
+      <c r="N19">
+        <v>0.282261</v>
+      </c>
+      <c r="O19">
+        <v>0.008555843275305605</v>
+      </c>
+      <c r="P19">
+        <v>0.008555843275305605</v>
+      </c>
+      <c r="Q19">
+        <v>3.555190387574</v>
+      </c>
+      <c r="R19">
+        <v>31.996713488166</v>
+      </c>
+      <c r="S19">
+        <v>0.003183929092968666</v>
+      </c>
+      <c r="T19">
+        <v>0.003183929092968666</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>37.786202</v>
+      </c>
+      <c r="H20">
+        <v>113.358606</v>
+      </c>
+      <c r="I20">
+        <v>0.3721350415754244</v>
+      </c>
+      <c r="J20">
+        <v>0.3721350415754244</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>2.040985</v>
+      </c>
+      <c r="N20">
+        <v>6.122954999999999</v>
+      </c>
+      <c r="O20">
+        <v>0.185597880549381</v>
+      </c>
+      <c r="P20">
+        <v>0.185597880549381</v>
+      </c>
+      <c r="Q20">
+        <v>77.12107148896999</v>
+      </c>
+      <c r="R20">
+        <v>694.08964340073</v>
+      </c>
+      <c r="S20">
+        <v>0.06906747499455455</v>
+      </c>
+      <c r="T20">
+        <v>0.06906747499455455</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>37.786202</v>
+      </c>
+      <c r="H21">
+        <v>113.358606</v>
+      </c>
+      <c r="I21">
+        <v>0.3721350415754244</v>
+      </c>
+      <c r="J21">
+        <v>0.3721350415754244</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.04400233333333333</v>
+      </c>
+      <c r="N21">
+        <v>0.132007</v>
+      </c>
+      <c r="O21">
+        <v>0.004001371791509515</v>
+      </c>
+      <c r="P21">
+        <v>0.004001371791509514</v>
+      </c>
+      <c r="Q21">
+        <v>1.662681055804667</v>
+      </c>
+      <c r="R21">
+        <v>14.964129502242</v>
+      </c>
+      <c r="S21">
+        <v>0.001489050657992124</v>
+      </c>
+      <c r="T21">
+        <v>0.001489050657992123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.5267796666666666</v>
+      </c>
+      <c r="H22">
+        <v>1.580339</v>
+      </c>
+      <c r="I22">
+        <v>0.00518795652328562</v>
+      </c>
+      <c r="J22">
+        <v>0.00518795652328562</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>8.692291666666668</v>
+      </c>
+      <c r="N22">
+        <v>26.076875</v>
+      </c>
+      <c r="O22">
+        <v>0.7904374164682153</v>
+      </c>
+      <c r="P22">
+        <v>0.7904374164682152</v>
+      </c>
+      <c r="Q22">
+        <v>4.578922506736111</v>
+      </c>
+      <c r="R22">
+        <v>41.210302560625</v>
+      </c>
+      <c r="S22">
+        <v>0.00410075495101531</v>
+      </c>
+      <c r="T22">
+        <v>0.00410075495101531</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.5267796666666666</v>
+      </c>
+      <c r="H23">
+        <v>1.580339</v>
+      </c>
+      <c r="I23">
+        <v>0.00518795652328562</v>
+      </c>
+      <c r="J23">
+        <v>0.00518795652328562</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.125446</v>
+      </c>
+      <c r="N23">
+        <v>0.376338</v>
+      </c>
+      <c r="O23">
+        <v>0.01140748791558863</v>
+      </c>
+      <c r="P23">
+        <v>0.01140748791558863</v>
+      </c>
+      <c r="Q23">
+        <v>0.06608240206466666</v>
+      </c>
+      <c r="R23">
+        <v>0.594741618582</v>
+      </c>
+      <c r="S23">
+        <v>5.91815513459799E-05</v>
+      </c>
+      <c r="T23">
+        <v>5.91815513459799E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.5267796666666666</v>
+      </c>
+      <c r="H24">
+        <v>1.580339</v>
+      </c>
+      <c r="I24">
+        <v>0.00518795652328562</v>
+      </c>
+      <c r="J24">
+        <v>0.00518795652328562</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.09408699999999999</v>
+      </c>
+      <c r="N24">
+        <v>0.282261</v>
+      </c>
+      <c r="O24">
+        <v>0.008555843275305605</v>
+      </c>
+      <c r="P24">
+        <v>0.008555843275305605</v>
+      </c>
+      <c r="Q24">
+        <v>0.04956311849766666</v>
+      </c>
+      <c r="R24">
+        <v>0.4460680664789999</v>
+      </c>
+      <c r="S24">
+        <v>4.438734293233112E-05</v>
+      </c>
+      <c r="T24">
+        <v>4.438734293233112E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.5267796666666666</v>
+      </c>
+      <c r="H25">
+        <v>1.580339</v>
+      </c>
+      <c r="I25">
+        <v>0.00518795652328562</v>
+      </c>
+      <c r="J25">
+        <v>0.00518795652328562</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>2.040985</v>
+      </c>
+      <c r="N25">
+        <v>6.122954999999999</v>
+      </c>
+      <c r="O25">
+        <v>0.185597880549381</v>
+      </c>
+      <c r="P25">
+        <v>0.185597880549381</v>
+      </c>
+      <c r="Q25">
+        <v>1.075149397971666</v>
+      </c>
+      <c r="R25">
+        <v>9.676344581744999</v>
+      </c>
+      <c r="S25">
+        <v>0.0009628737351041465</v>
+      </c>
+      <c r="T25">
+        <v>0.0009628737351041465</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.5267796666666666</v>
+      </c>
+      <c r="H26">
+        <v>1.580339</v>
+      </c>
+      <c r="I26">
+        <v>0.00518795652328562</v>
+      </c>
+      <c r="J26">
+        <v>0.00518795652328562</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M26">
+        <v>0.04400233333333333</v>
+      </c>
+      <c r="N26">
+        <v>0.132007</v>
+      </c>
+      <c r="O26">
+        <v>0.004001371791509515</v>
+      </c>
+      <c r="P26">
+        <v>0.004001371791509514</v>
+      </c>
+      <c r="Q26">
+        <v>0.02317953448588889</v>
+      </c>
+      <c r="R26">
+        <v>0.208615810373</v>
+      </c>
+      <c r="S26">
+        <v>2.075894288785286E-05</v>
+      </c>
+      <c r="T26">
+        <v>2.075894288785285E-05</v>
       </c>
     </row>
   </sheetData>
